--- a/subjects/resources/1/it_phys/LR5.xlsx
+++ b/subjects/resources/1/it_phys/LR5.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\ИТ в физике\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_phys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -779,7 +779,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1286,6 +1285,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F89F-4032-ADBF-3D26A4208F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1752,6 +1756,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F89F-4032-ADBF-3D26A4208F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1881,7 +1890,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1959,7 +1967,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2480,6 +2488,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1076-482E-BCB4-533DE0B15FC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
